--- a/results_final/ei_MH.xlsx
+++ b/results_final/ei_MH.xlsx
@@ -620,88 +620,88 @@
         <v>1.035381677566721</v>
       </c>
       <c r="E3">
-        <v>0.8947901743815287</v>
+        <v>0.8947901743815291</v>
       </c>
       <c r="F3">
-        <v>0.7961919668155253</v>
+        <v>0.7961919668155256</v>
       </c>
       <c r="G3">
-        <v>0.7251954313353395</v>
+        <v>0.7251954313353398</v>
       </c>
       <c r="H3">
-        <v>0.6729842086800087</v>
+        <v>0.6729842086800091</v>
       </c>
       <c r="I3">
-        <v>0.6339349929130974</v>
+        <v>0.6339349929130977</v>
       </c>
       <c r="J3">
-        <v>0.6043334127981947</v>
+        <v>0.6043334127981951</v>
       </c>
       <c r="K3">
-        <v>0.5816505076086818</v>
+        <v>0.5816505076086821</v>
       </c>
       <c r="L3">
-        <v>0.5641187246693543</v>
+        <v>0.5641187246693546</v>
       </c>
       <c r="M3">
-        <v>0.5504745417274326</v>
+        <v>0.5504745417274329</v>
       </c>
       <c r="N3">
-        <v>0.5397971871169137</v>
+        <v>0.539797187116914</v>
       </c>
       <c r="O3">
-        <v>0.5314046128146753</v>
+        <v>0.5314046128146757</v>
       </c>
       <c r="P3">
-        <v>0.524784600232495</v>
+        <v>0.5247846002324953</v>
       </c>
       <c r="Q3">
-        <v>0.5195480175619108</v>
+        <v>0.5195480175619112</v>
       </c>
       <c r="R3">
-        <v>0.5153963990018073</v>
+        <v>0.5153963990018077</v>
       </c>
       <c r="S3">
-        <v>0.5120990028135152</v>
+        <v>0.5120990028135155</v>
       </c>
       <c r="T3">
-        <v>0.5094762815006193</v>
+        <v>0.5094762815006196</v>
       </c>
       <c r="U3">
-        <v>0.5073877790129918</v>
+        <v>0.5073877790129921</v>
       </c>
       <c r="V3">
-        <v>0.5057231429351011</v>
+        <v>0.5057231429351015</v>
       </c>
       <c r="W3">
-        <v>0.5043953670929413</v>
+        <v>0.5043953670929416</v>
       </c>
       <c r="X3">
-        <v>0.5033356568327202</v>
+        <v>0.5033356568327205</v>
       </c>
       <c r="Y3">
-        <v>0.5024894918571939</v>
+        <v>0.5024894918571943</v>
       </c>
       <c r="Z3">
-        <v>0.5018135841918948</v>
+        <v>0.5018135841918951</v>
       </c>
       <c r="AA3">
-        <v>0.5012735127247938</v>
+        <v>0.5012735127247941</v>
       </c>
       <c r="AB3">
-        <v>0.5008418740783428</v>
+        <v>0.5008418740783431</v>
       </c>
       <c r="AC3">
-        <v>0.5004968307841112</v>
+        <v>0.5004968307841116</v>
       </c>
       <c r="AD3">
-        <v>0.5002209673074333</v>
+        <v>0.5002209673074336</v>
       </c>
       <c r="AE3">
-        <v>0.5000003860062793</v>
+        <v>0.5000003860062796</v>
       </c>
       <c r="AF3">
-        <v>0.4998239910012637</v>
+        <v>0.4998239910012641</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -905,97 +905,97 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.078760376804843</v>
+        <v>3.078760376804844</v>
       </c>
       <c r="C6">
-        <v>1.815660816821453</v>
+        <v>1.815660816821454</v>
       </c>
       <c r="D6">
-        <v>1.190040625261309</v>
+        <v>1.19004062526131</v>
       </c>
       <c r="E6">
-        <v>0.8487571393521512</v>
+        <v>0.848757139352152</v>
       </c>
       <c r="F6">
-        <v>0.6476804119662828</v>
+        <v>0.6476804119662836</v>
       </c>
       <c r="G6">
-        <v>0.5217021429003801</v>
+        <v>0.5217021429003807</v>
       </c>
       <c r="H6">
-        <v>0.4388055449614802</v>
+        <v>0.4388055449614808</v>
       </c>
       <c r="I6">
-        <v>0.3820777045233109</v>
+        <v>0.3820777045233115</v>
       </c>
       <c r="J6">
-        <v>0.3420230434321894</v>
+        <v>0.3420230434321899</v>
       </c>
       <c r="K6">
-        <v>0.3130244809960924</v>
+        <v>0.3130244809960929</v>
       </c>
       <c r="L6">
-        <v>0.2916061329997274</v>
+        <v>0.2916061329997279</v>
       </c>
       <c r="M6">
-        <v>0.275531548774789</v>
+        <v>0.2755315487747895</v>
       </c>
       <c r="N6">
-        <v>0.263312257885418</v>
+        <v>0.2633122578854185</v>
       </c>
       <c r="O6">
-        <v>0.2539281637465367</v>
+        <v>0.2539281637465371</v>
       </c>
       <c r="P6">
-        <v>0.246662261015981</v>
+        <v>0.2466622610159814</v>
       </c>
       <c r="Q6">
-        <v>0.240999519623866</v>
+        <v>0.2409995196238664</v>
       </c>
       <c r="R6">
-        <v>0.2365630723581334</v>
+        <v>0.2365630723581338</v>
       </c>
       <c r="S6">
-        <v>0.2330727884156586</v>
+        <v>0.233072788415659</v>
       </c>
       <c r="T6">
-        <v>0.2303176751050246</v>
+        <v>0.230317675105025</v>
       </c>
       <c r="U6">
-        <v>0.2281370517598359</v>
+        <v>0.2281370517598363</v>
       </c>
       <c r="V6">
-        <v>0.2264074275489339</v>
+        <v>0.2264074275489343</v>
       </c>
       <c r="W6">
-        <v>0.2250331744454498</v>
+        <v>0.2250331744454502</v>
       </c>
       <c r="X6">
-        <v>0.2239397802584332</v>
+        <v>0.2239397802584336</v>
       </c>
       <c r="Y6">
-        <v>0.2230688912203884</v>
+        <v>0.2230688912203888</v>
       </c>
       <c r="Z6">
-        <v>0.2223746191461385</v>
+        <v>0.2223746191461389</v>
       </c>
       <c r="AA6">
-        <v>0.2218207576066824</v>
+        <v>0.2218207576066829</v>
       </c>
       <c r="AB6">
-        <v>0.2213786617698581</v>
+        <v>0.2213786617698585</v>
       </c>
       <c r="AC6">
-        <v>0.2210256195847239</v>
+        <v>0.2210256195847243</v>
       </c>
       <c r="AD6">
-        <v>0.2207435912481837</v>
+        <v>0.2207435912481841</v>
       </c>
       <c r="AE6">
-        <v>0.2205182277057492</v>
+        <v>0.2205182277057497</v>
       </c>
       <c r="AF6">
-        <v>0.2203381025408132</v>
+        <v>0.2203381025408136</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1199,97 +1199,97 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.127814202433855</v>
+        <v>2.127814202433856</v>
       </c>
       <c r="C9">
-        <v>1.564657177444222</v>
+        <v>1.564657177444223</v>
       </c>
       <c r="D9">
-        <v>1.223510191753203</v>
+        <v>1.223510191753204</v>
       </c>
       <c r="E9">
-        <v>1.004982055086425</v>
+        <v>1.004982055086426</v>
       </c>
       <c r="F9">
-        <v>0.8586158073058007</v>
+        <v>0.8586158073058021</v>
       </c>
       <c r="G9">
-        <v>0.7570269450826626</v>
+        <v>0.7570269450826639</v>
       </c>
       <c r="H9">
-        <v>0.6844808531494361</v>
+        <v>0.6844808531494374</v>
       </c>
       <c r="I9">
-        <v>0.6314824385329613</v>
+        <v>0.6314824385329626</v>
       </c>
       <c r="J9">
-        <v>0.5920539131445602</v>
+        <v>0.5920539131445616</v>
       </c>
       <c r="K9">
-        <v>0.5622911378359078</v>
+        <v>0.562291137835909</v>
       </c>
       <c r="L9">
-        <v>0.5395618374796119</v>
+        <v>0.5395618374796132</v>
       </c>
       <c r="M9">
-        <v>0.5220417225313716</v>
+        <v>0.5220417225313728</v>
       </c>
       <c r="N9">
-        <v>0.5084361309501911</v>
+        <v>0.5084361309501922</v>
       </c>
       <c r="O9">
-        <v>0.4978074114442594</v>
+        <v>0.4978074114442605</v>
       </c>
       <c r="P9">
-        <v>0.4894646373629477</v>
+        <v>0.4894646373629488</v>
       </c>
       <c r="Q9">
-        <v>0.482891199295008</v>
+        <v>0.4828911992950091</v>
       </c>
       <c r="R9">
-        <v>0.477696067800119</v>
+        <v>0.4776960678001201</v>
       </c>
       <c r="S9">
-        <v>0.4735802332579684</v>
+        <v>0.4735802332579695</v>
       </c>
       <c r="T9">
-        <v>0.470313113022593</v>
+        <v>0.470313113022594</v>
       </c>
       <c r="U9">
-        <v>0.4677156524690497</v>
+        <v>0.4677156524690507</v>
       </c>
       <c r="V9">
-        <v>0.4656480164799388</v>
+        <v>0.4656480164799398</v>
       </c>
       <c r="W9">
-        <v>0.464000490734833</v>
+        <v>0.464000490734834</v>
       </c>
       <c r="X9">
-        <v>0.4626866681316034</v>
+        <v>0.4626866681316044</v>
       </c>
       <c r="Y9">
-        <v>0.4616382890295523</v>
+        <v>0.4616382890295533</v>
       </c>
       <c r="Z9">
-        <v>0.4608012963455335</v>
+        <v>0.4608012963455345</v>
       </c>
       <c r="AA9">
-        <v>0.460132794962666</v>
+        <v>0.460132794962667</v>
       </c>
       <c r="AB9">
-        <v>0.4595986921940003</v>
+        <v>0.4595986921940013</v>
       </c>
       <c r="AC9">
-        <v>0.459171856387701</v>
+        <v>0.459171856387702</v>
       </c>
       <c r="AD9">
-        <v>0.4588306731744222</v>
+        <v>0.4588306731744232</v>
       </c>
       <c r="AE9">
-        <v>0.4585579091421249</v>
+        <v>0.4585579091421259</v>
       </c>
       <c r="AF9">
-        <v>0.4583398146702073</v>
+        <v>0.4583398146702083</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1300,94 +1300,94 @@
         <v>1.411902709128922</v>
       </c>
       <c r="C10">
-        <v>0.9678782929456794</v>
+        <v>0.9678782929456795</v>
       </c>
       <c r="D10">
-        <v>0.7155393670812379</v>
+        <v>0.7155393670812381</v>
       </c>
       <c r="E10">
-        <v>0.5619319926189333</v>
+        <v>0.5619319926189336</v>
       </c>
       <c r="F10">
-        <v>0.4631524220048892</v>
+        <v>0.4631524220048895</v>
       </c>
       <c r="G10">
-        <v>0.3967857659995483</v>
+        <v>0.3967857659995486</v>
       </c>
       <c r="H10">
-        <v>0.3506079827101897</v>
+        <v>0.35060798271019</v>
       </c>
       <c r="I10">
-        <v>0.3175662733332021</v>
+        <v>0.3175662733332024</v>
       </c>
       <c r="J10">
-        <v>0.2933894079127449</v>
+        <v>0.2933894079127452</v>
       </c>
       <c r="K10">
-        <v>0.2753800517135244</v>
+        <v>0.2753800517135247</v>
       </c>
       <c r="L10">
-        <v>0.2617718331641982</v>
+        <v>0.2617718331641984</v>
       </c>
       <c r="M10">
-        <v>0.2513710528038665</v>
+        <v>0.2513710528038668</v>
       </c>
       <c r="N10">
-        <v>0.2433487635092203</v>
+        <v>0.2433487635092206</v>
       </c>
       <c r="O10">
-        <v>0.2371156656557307</v>
+        <v>0.237115665655731</v>
       </c>
       <c r="P10">
-        <v>0.2322443357869446</v>
+        <v>0.2322443357869449</v>
       </c>
       <c r="Q10">
-        <v>0.228419426725245</v>
+        <v>0.2284194267252453</v>
       </c>
       <c r="R10">
-        <v>0.225404904983881</v>
+        <v>0.2254049049838813</v>
       </c>
       <c r="S10">
-        <v>0.2230219570666797</v>
+        <v>0.22302195706668</v>
       </c>
       <c r="T10">
-        <v>0.2211337499264784</v>
+        <v>0.2211337499264787</v>
       </c>
       <c r="U10">
-        <v>0.2196347009614059</v>
+        <v>0.2196347009614062</v>
       </c>
       <c r="V10">
-        <v>0.2184427816991471</v>
+        <v>0.2184427816991474</v>
       </c>
       <c r="W10">
-        <v>0.2174939051805207</v>
+        <v>0.2174939051805209</v>
       </c>
       <c r="X10">
-        <v>0.2167377724865104</v>
+        <v>0.2167377724865107</v>
       </c>
       <c r="Y10">
-        <v>0.2161347594689363</v>
+        <v>0.2161347594689366</v>
       </c>
       <c r="Z10">
-        <v>0.2156535572355371</v>
+        <v>0.2156535572355374</v>
       </c>
       <c r="AA10">
-        <v>0.2152693669341032</v>
+        <v>0.2152693669341035</v>
       </c>
       <c r="AB10">
-        <v>0.2149625075492073</v>
+        <v>0.2149625075492076</v>
       </c>
       <c r="AC10">
-        <v>0.2147173350121463</v>
+        <v>0.2147173350121466</v>
       </c>
       <c r="AD10">
-        <v>0.2145213983300947</v>
+        <v>0.214521398330095</v>
       </c>
       <c r="AE10">
-        <v>0.2143647777273613</v>
+        <v>0.2143647777273616</v>
       </c>
       <c r="AF10">
-        <v>0.2142395635794753</v>
+        <v>0.2142395635794756</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,97 +1395,97 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.507308620165567</v>
+        <v>1.507308620165566</v>
       </c>
       <c r="C11">
-        <v>1.365761454906527</v>
+        <v>1.365761454906526</v>
       </c>
       <c r="D11">
-        <v>1.262155856542698</v>
+        <v>1.262155856542697</v>
       </c>
       <c r="E11">
-        <v>1.184959466619557</v>
+        <v>1.184959466619556</v>
       </c>
       <c r="F11">
-        <v>1.126615965306473</v>
+        <v>1.126615965306472</v>
       </c>
       <c r="G11">
-        <v>1.082016357987974</v>
+        <v>1.082016357987973</v>
       </c>
       <c r="H11">
-        <v>1.047611281602314</v>
+        <v>1.047611281602313</v>
       </c>
       <c r="I11">
-        <v>1.020876575302835</v>
+        <v>1.020876575302834</v>
       </c>
       <c r="J11">
-        <v>0.9999808805242925</v>
+        <v>0.9999808805242911</v>
       </c>
       <c r="K11">
-        <v>0.9835726923244921</v>
+        <v>0.9835726923244907</v>
       </c>
       <c r="L11">
-        <v>0.9706402031938731</v>
+        <v>0.9706402031938719</v>
       </c>
       <c r="M11">
-        <v>0.9604167503182948</v>
+        <v>0.9604167503182935</v>
       </c>
       <c r="N11">
-        <v>0.9523155725655756</v>
+        <v>0.9523155725655744</v>
       </c>
       <c r="O11">
-        <v>0.9458838585530273</v>
+        <v>0.9458838585530261</v>
       </c>
       <c r="P11">
-        <v>0.9407697770110078</v>
+        <v>0.9407697770110067</v>
       </c>
       <c r="Q11">
-        <v>0.9366984270724089</v>
+        <v>0.9366984270724078</v>
       </c>
       <c r="R11">
-        <v>0.9334540368242493</v>
+        <v>0.9334540368242482</v>
       </c>
       <c r="S11">
-        <v>0.9308666174340708</v>
+        <v>0.9308666174340697</v>
       </c>
       <c r="T11">
-        <v>0.9288018467221639</v>
+        <v>0.9288018467221628</v>
       </c>
       <c r="U11">
-        <v>0.9271533281701858</v>
+        <v>0.9271533281701847</v>
       </c>
       <c r="V11">
-        <v>0.9258366202508882</v>
+        <v>0.9258366202508871</v>
       </c>
       <c r="W11">
-        <v>0.9247846003987258</v>
+        <v>0.9247846003987247</v>
       </c>
       <c r="X11">
-        <v>0.9239438452707414</v>
+        <v>0.9239438452707402</v>
       </c>
       <c r="Y11">
-        <v>0.9232717915415632</v>
+        <v>0.9232717915415621</v>
       </c>
       <c r="Z11">
-        <v>0.9227345005365892</v>
+        <v>0.9227345005365881</v>
       </c>
       <c r="AA11">
-        <v>0.9223048928654869</v>
+        <v>0.9223048928654858</v>
       </c>
       <c r="AB11">
-        <v>0.9219613507454439</v>
+        <v>0.9219613507454428</v>
       </c>
       <c r="AC11">
-        <v>0.921686609185282</v>
+        <v>0.9216866091852809</v>
       </c>
       <c r="AD11">
-        <v>0.9214668748862458</v>
+        <v>0.9214668748862447</v>
       </c>
       <c r="AE11">
-        <v>0.9212911251652922</v>
+        <v>0.9212911251652911</v>
       </c>
       <c r="AF11">
-        <v>0.9211505495235446</v>
+        <v>0.9211505495235435</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1496,7 +1496,7 @@
         <v>2.434219760368954</v>
       </c>
       <c r="C12">
-        <v>2.071510060701155</v>
+        <v>2.071510060701156</v>
       </c>
       <c r="D12">
         <v>1.820660027932638</v>
@@ -1508,7 +1508,7 @@
         <v>1.511837330532378</v>
       </c>
       <c r="G12">
-        <v>1.415152594240686</v>
+        <v>1.415152594240687</v>
       </c>
       <c r="H12">
         <v>1.34227603846056</v>
@@ -1517,7 +1517,7 @@
         <v>1.286686338982408</v>
       </c>
       <c r="J12">
-        <v>1.243876812266487</v>
+        <v>1.243876812266488</v>
       </c>
       <c r="K12">
         <v>1.210657000393799</v>
@@ -1529,7 +1529,7 @@
         <v>1.164372959777042</v>
       </c>
       <c r="N12">
-        <v>1.148346388804703</v>
+        <v>1.148346388804704</v>
       </c>
       <c r="O12">
         <v>1.135684104375612</v>
@@ -1565,7 +1565,7 @@
         <v>1.091601898099444</v>
       </c>
       <c r="Z12">
-        <v>1.090562715301091</v>
+        <v>1.090562715301092</v>
       </c>
       <c r="AA12">
         <v>1.089732081389862</v>
@@ -1580,7 +1580,7 @@
         <v>1.088112506337031</v>
       </c>
       <c r="AE12">
-        <v>1.087772966733401</v>
+        <v>1.087772966733402</v>
       </c>
       <c r="AF12">
         <v>1.087501411337158</v>
@@ -1594,94 +1594,94 @@
         <v>1.294687646522454</v>
       </c>
       <c r="C13">
-        <v>1.335384803242595</v>
+        <v>1.335384803242596</v>
       </c>
       <c r="D13">
-        <v>1.368861692714457</v>
+        <v>1.368861692714458</v>
       </c>
       <c r="E13">
-        <v>1.396246451388211</v>
+        <v>1.396246451388213</v>
       </c>
       <c r="F13">
-        <v>1.418548184292689</v>
+        <v>1.418548184292691</v>
       </c>
       <c r="G13">
-        <v>1.436645775341867</v>
+        <v>1.436645775341869</v>
       </c>
       <c r="H13">
-        <v>1.45128994519241</v>
+        <v>1.451289945192412</v>
       </c>
       <c r="I13">
-        <v>1.463112684461398</v>
+        <v>1.4631126844614</v>
       </c>
       <c r="J13">
-        <v>1.472640183208964</v>
+        <v>1.472640183208966</v>
       </c>
       <c r="K13">
-        <v>1.480306832499925</v>
+        <v>1.480306832499927</v>
       </c>
       <c r="L13">
-        <v>1.486468879345938</v>
+        <v>1.486468879345941</v>
       </c>
       <c r="M13">
-        <v>1.491416980166506</v>
+        <v>1.491416980166508</v>
       </c>
       <c r="N13">
-        <v>1.495387317349102</v>
+        <v>1.495387317349105</v>
       </c>
       <c r="O13">
-        <v>1.498571195807661</v>
+        <v>1.498571195807664</v>
       </c>
       <c r="P13">
-        <v>1.501123178690617</v>
+        <v>1.50112317869062</v>
       </c>
       <c r="Q13">
-        <v>1.50316789367843</v>
+        <v>1.503167893678433</v>
       </c>
       <c r="R13">
-        <v>1.504805670797611</v>
+        <v>1.504805670797613</v>
       </c>
       <c r="S13">
-        <v>1.50611717719693</v>
+        <v>1.506117177196932</v>
       </c>
       <c r="T13">
-        <v>1.507167205255447</v>
+        <v>1.50716720525545</v>
       </c>
       <c r="U13">
-        <v>1.508007754756562</v>
+        <v>1.508007754756565</v>
       </c>
       <c r="V13">
-        <v>1.50868053186346</v>
+        <v>1.508680531863462</v>
       </c>
       <c r="W13">
-        <v>1.509218969650794</v>
+        <v>1.509218969650797</v>
       </c>
       <c r="X13">
-        <v>1.509649858236006</v>
+        <v>1.509649858236008</v>
       </c>
       <c r="Y13">
-        <v>1.509994657677297</v>
+        <v>1.5099946576773</v>
       </c>
       <c r="Z13">
-        <v>1.510270553930291</v>
+        <v>1.510270553930294</v>
       </c>
       <c r="AA13">
-        <v>1.510491307227403</v>
+        <v>1.510491307227405</v>
       </c>
       <c r="AB13">
-        <v>1.510667933097162</v>
+        <v>1.510667933097164</v>
       </c>
       <c r="AC13">
-        <v>1.510809248663261</v>
+        <v>1.510809248663264</v>
       </c>
       <c r="AD13">
-        <v>1.510922310634033</v>
+        <v>1.510922310634035</v>
       </c>
       <c r="AE13">
-        <v>1.511012766302565</v>
+        <v>1.511012766302568</v>
       </c>
       <c r="AF13">
-        <v>1.511085134736453</v>
+        <v>1.511085134736456</v>
       </c>
     </row>
   </sheetData>
